--- a/case/NDCG/RJ/excel_Terbaik/rata-rata_NDCG_RJ.xlsx
+++ b/case/NDCG/RJ/excel_Terbaik/rata-rata_NDCG_RJ.xlsx
@@ -552,67 +552,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0457516339869281</v>
+        <v>0.0458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03395220195798784</v>
+        <v>0.034</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03109764761079025</v>
+        <v>0.0311</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03063105880719887</v>
+        <v>0.0306</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03147155567738716</v>
+        <v>0.0315</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03042761089247713</v>
+        <v>0.0304</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0306339630908366</v>
+        <v>0.0306</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03062336048997419</v>
+        <v>0.0306</v>
       </c>
       <c r="J2" t="n">
-        <v>0.030768861084797</v>
+        <v>0.0308</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03061321785265998</v>
+        <v>0.0306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03010266282118385</v>
+        <v>0.0301</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03035501778738041</v>
+        <v>0.0304</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03046903130154544</v>
+        <v>0.0305</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03037111592586276</v>
+        <v>0.0304</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03074835723416095</v>
+        <v>0.0307</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03038927999530475</v>
+        <v>0.0304</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03096983368641439</v>
+        <v>0.031</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0311868563304366</v>
+        <v>0.0312</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03071960091800669</v>
+        <v>0.0307</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03036026565972313</v>
+        <v>0.0304</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03158215665555281</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="3">
@@ -622,67 +622,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02297090352220521</v>
+        <v>0.023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01882393621647505</v>
+        <v>0.0188</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02231225446296874</v>
+        <v>0.0223</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02113564436819549</v>
+        <v>0.0211</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01936717356964627</v>
+        <v>0.0194</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01810494039481884</v>
+        <v>0.0181</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01827015719616236</v>
+        <v>0.0183</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01803426686450912</v>
+        <v>0.018</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01816685251287275</v>
+        <v>0.0182</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01886220388802773</v>
+        <v>0.0189</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01909985909508021</v>
+        <v>0.0191</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01898022606215098</v>
+        <v>0.019</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01940126150803765</v>
+        <v>0.0194</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01991335608580905</v>
+        <v>0.0199</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01997845006541776</v>
+        <v>0.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02009834943251632</v>
+        <v>0.0201</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01997541561160151</v>
+        <v>0.02</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01997300833182928</v>
+        <v>0.02</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01997080438816471</v>
+        <v>0.02</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02001829981636573</v>
+        <v>0.02</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01967286816964274</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="4">
@@ -692,67 +692,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01380897583429229</v>
+        <v>0.0138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01024761512327234</v>
+        <v>0.0102</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009463185885160883</v>
+        <v>0.0095</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01038730526624738</v>
+        <v>0.0104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01053427786089868</v>
+        <v>0.0105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01113533109177853</v>
+        <v>0.0111</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01148574277474202</v>
+        <v>0.0115</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01213024110750075</v>
+        <v>0.0121</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01347035199756175</v>
+        <v>0.0135</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0140043759702563</v>
+        <v>0.014</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01439244270370817</v>
+        <v>0.0144</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01472785761102077</v>
+        <v>0.0147</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0151342899208289</v>
+        <v>0.0151</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0153887803417151</v>
+        <v>0.0154</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01546864419947379</v>
+        <v>0.0155</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01544825316174315</v>
+        <v>0.0154</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01643000474012133</v>
+        <v>0.0164</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01670670928006784</v>
+        <v>0.0167</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01692095818882425</v>
+        <v>0.0169</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01693196166764233</v>
+        <v>0.0169</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01371086523634283</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="5">
@@ -762,67 +762,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01083423618634886</v>
+        <v>0.0108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00999598524976264</v>
+        <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008921602776827063</v>
+        <v>0.0089</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008332402401064679</v>
+        <v>0.0083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009371409096094347</v>
+        <v>0.0094</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01069689914981383</v>
+        <v>0.0107</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01110655939851664</v>
+        <v>0.0111</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01212224494606141</v>
+        <v>0.0121</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01279769552964951</v>
+        <v>0.0128</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01329313307977033</v>
+        <v>0.0133</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01365224437929136</v>
+        <v>0.0137</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01367518170855151</v>
+        <v>0.0137</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01422661049715132</v>
+        <v>0.0142</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01476374491573871</v>
+        <v>0.0148</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01501203694004339</v>
+        <v>0.015</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01514851257212366</v>
+        <v>0.0151</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01547679285342217</v>
+        <v>0.0155</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01558200644993185</v>
+        <v>0.0156</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01553114645050424</v>
+        <v>0.0155</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01555443674096636</v>
+        <v>0.0156</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01280474406608169</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="6">
@@ -832,67 +832,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001078748651564185</v>
+        <v>0.0011</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003165333372354594</v>
+        <v>0.0032</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004194439841313479</v>
+        <v>0.0042</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004214708416929134</v>
+        <v>0.0042</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004227866474173281</v>
+        <v>0.0042</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004469812752058976</v>
+        <v>0.0045</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006135921487039869</v>
+        <v>0.0061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006937482226472524</v>
+        <v>0.0069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007515202934605179</v>
+        <v>0.0075</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00847832742953299</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008611893698568908</v>
+        <v>0.0086</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00924251676465122</v>
+        <v>0.0092</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009635724838724744</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01042635808001632</v>
+        <v>0.0104</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01067181662024447</v>
+        <v>0.0107</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01102223109019049</v>
+        <v>0.011</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01150255958100271</v>
+        <v>0.0115</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0118628477850301</v>
+        <v>0.0119</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01230261700863837</v>
+        <v>0.0123</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01260246915732956</v>
+        <v>0.0126</v>
       </c>
       <c r="V6" t="n">
-        <v>0.007914943910522056</v>
+        <v>0.007900000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -902,67 +902,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01888889963626773</v>
+        <v>0.0189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01523701438397049</v>
+        <v>0.0152</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01519782611541209</v>
+        <v>0.0152</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01494022385192711</v>
+        <v>0.0149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01499445653563995</v>
+        <v>0.015</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01496691885618946</v>
+        <v>0.015</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0155264687894595</v>
+        <v>0.0155</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0159695191269036</v>
+        <v>0.016</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01654379281189724</v>
+        <v>0.0165</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01705025164404947</v>
+        <v>0.0171</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0171718205395665</v>
+        <v>0.0172</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01739615998675098</v>
+        <v>0.0174</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01777338361325761</v>
+        <v>0.0178</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01817267106982839</v>
+        <v>0.0182</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01837586101186808</v>
+        <v>0.0184</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01842132525037567</v>
+        <v>0.0184</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01887092129451242</v>
+        <v>0.0189</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01906228563545913</v>
+        <v>0.0191</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01908902539082765</v>
+        <v>0.0191</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01909348660840542</v>
+        <v>0.0191</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01713711560762842</v>
+        <v>0.0171</v>
       </c>
     </row>
   </sheetData>
